--- a/benchmark/rush/Fiche d'investigation de fonctionnalité.xlsx
+++ b/benchmark/rush/Fiche d'investigation de fonctionnalité.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Dev\openclassroom-projet_7-les_petits_plats\benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Formations\Formation developpeur concepteur de logiciel Javascript React(vue)\Projet_7-Développez un algorithme de recherche en JavaScript\Evaluation\Livrable\rush\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2613CA1-F186-4783-999A-736D21B8F608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37EFC58-379A-4C3C-89B7-986C72BDBA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="-12810" windowWidth="21780" windowHeight="12885" xr2:uid="{635EB2B3-6B79-47F8-B548-1F8F44EC83D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{635EB2B3-6B79-47F8-B548-1F8F44EC83D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithme de recherche" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Fiche d'investigation de fonctionnalité</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Recherche principale</t>
   </si>
   <si>
-    <t>Pour tout algorithme important qu’on développe, on a pour habitude d’en faire deux implémentations différentes pour pouvoir comparer leurs performances et choisir la meilleure.</t>
-  </si>
-  <si>
     <t>Input Search V1 - méhode fonctionnelle</t>
   </si>
   <si>
@@ -115,6 +112,24 @@
   </si>
   <si>
     <t>Input Search V2 - méthode impérative</t>
+  </si>
+  <si>
+    <t>Search V1</t>
+  </si>
+  <si>
+    <t>Search V2</t>
+  </si>
+  <si>
+    <t>606 M ops/s</t>
+  </si>
+  <si>
+    <t>570 M ops/s</t>
+  </si>
+  <si>
+    <t>La V1 est plus rapide que la V2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette algorithme doit fonctionner avec un enchainement de 2 étapes de recherche comprenant la recherche principale et les filtres. Pour tout algorithme important qu’on développe, on a pour habitude d’en faire deux implémentations différentes pour pouvoir comparer leurs performances et choisir la meilleure. </t>
   </si>
 </sst>
 </file>
@@ -303,11 +318,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -320,70 +392,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -420,15 +432,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>44827</xdr:rowOff>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>131321</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1306198</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>161096</xdr:rowOff>
+      <xdr:colOff>1317404</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>57090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -457,8 +469,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10118915"/>
-          <a:ext cx="6326433" cy="6593269"/>
+          <a:off x="11206" y="12317368"/>
+          <a:ext cx="6324682" cy="6593269"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -471,14 +483,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>580260</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>106724</xdr:rowOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>117928</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>725938</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>124696</xdr:rowOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>135900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -507,8 +519,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="580260" y="19134312"/>
+          <a:off x="580260" y="19156722"/>
           <a:ext cx="5165913" cy="9352472"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>168441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1288677</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>89999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE55FE88-8230-AD38-F46A-8B838BF96736}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="38051" b="-559"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9687488"/>
+          <a:ext cx="6307161" cy="2017058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -817,412 +878,404 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E7059F-E3A3-471A-8CDD-70681D0EC441}">
-  <dimension ref="A2:H39"/>
+  <dimension ref="A2:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="12" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="16" t="s">
+      <c r="D27" s="12"/>
+      <c r="E27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="11"/>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="D32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="19"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="19"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="19"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="15"/>
-    </row>
-    <row r="31" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
-    </row>
-    <row r="33" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="15"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="3"/>
+      <c r="B58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
